--- a/src/analysis_examples/circadb/results_jtk/cosinor_10368935_qrsl1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10368935_qrsl1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24986487385574496, 0.4035217451647821]</t>
+          <t>[0.24939869161047407, 0.403987927410053]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.593464316052007e-08</v>
+        <v>1.763110213381935e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.593464316052007e-08</v>
+        <v>1.763110213381935e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3773684869176925</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.44737806206156877, 0.5310956099722219]</t>
+          <t>[0.4473922609175026, 0.5310814111162881]</t>
         </is>
       </c>
       <c r="U2" t="n">
